--- a/test_01/future_3/test_cases/futurecase.xlsx
+++ b/test_01/future_3/test_cases/futurecase.xlsx
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13321345694</v>
+        <v>13321345695</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>Faild</t>
         </is>
       </c>
     </row>

--- a/test_01/future_3/test_cases/futurecase.xlsx
+++ b/test_01/future_3/test_cases/futurecase.xlsx
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13321345695</v>
+        <v>13321345697</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Faild</t>
+          <t>pass</t>
         </is>
       </c>
     </row>

--- a/test_01/future_3/test_cases/futurecase.xlsx
+++ b/test_01/future_3/test_cases/futurecase.xlsx
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13321345697</v>
+        <v>13321345698</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>

--- a/test_01/future_3/test_cases/futurecase.xlsx
+++ b/test_01/future_3/test_cases/futurecase.xlsx
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13321345698</v>
+        <v>13321345699</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>Faild</t>
         </is>
       </c>
     </row>

--- a/test_01/future_3/test_cases/futurecase.xlsx
+++ b/test_01/future_3/test_cases/futurecase.xlsx
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13321345699</v>
+        <v>13321345703</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
